--- a/getUniqueEmailsExcel/InputFile.xlsx
+++ b/getUniqueEmailsExcel/InputFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Uipath\getUniqueEmailsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987966D-61C6-4911-B8A1-0D1E30D2732D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580BAE35-215E-4195-AA8A-78FA4D0A5D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{732EB34E-DBA1-4CBA-BDDD-FEE0F435B7D8}"/>
   </bookViews>
@@ -91,26 +91,34 @@
     <t>ten@outlook.com;ten@gmail.com;ten@ymail.com;</t>
   </si>
   <si>
-    <t>one@outlook.com</t>
-  </si>
-  <si>
-    <t>one@gmail.com</t>
-  </si>
-  <si>
-    <t>one@ymail.com</t>
-  </si>
-  <si>
     <t>one@outlook.com;one@outlook.com;one@ymail.com</t>
+  </si>
+  <si>
+    <t>three@outlook.com</t>
+  </si>
+  <si>
+    <t>three@gmail.com</t>
+  </si>
+  <si>
+    <t>three@ymail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,14 +141,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071849C2-B1CC-4E6B-AAEA-492E4A570C14}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -466,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -619,6 +629,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{4434CB80-3303-4EE3-BDFE-C5D4B00C0330}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -628,7 +641,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -648,7 +661,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
